--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:21:15+00:00</t>
+    <t>2023-03-01T12:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:22:13+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T12:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:48:35+00:00</t>
+    <t>2023-03-01T12:49:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:49:43+00:00</t>
+    <t>2023-03-01T13:04:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:04:01+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-01T13:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:24:40+00:00</t>
+    <t>2023-03-01T13:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:36:33+00:00</t>
+    <t>2023-03-01T13:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:38:18+00:00</t>
+    <t>2023-03-01T14:07:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T14:07:40+00:00</t>
+    <t>2023-03-01T15:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T15:00:07+00:00</t>
+    <t>2023-03-02T06:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:23+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T06:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:46:56+00:00</t>
+    <t>2023-03-02T06:53:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:53:26+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T09:16:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:16:05+00:00</t>
+    <t>2023-03-02T09:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:49:00+00:00</t>
+    <t>2023-03-02T09:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T09:54:57+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-02T11:49:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:49:40+00:00</t>
+    <t>2023-03-02T11:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:50:33+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T12:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T12:58:17+00:00</t>
+    <t>2023-03-02T13:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:09:37+00:00</t>
+    <t>2023-03-02T13:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:11:41+00:00</t>
+    <t>2023-03-02T13:30:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:30:18+00:00</t>
+    <t>2023-03-02T13:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T13:33:11+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:26:43+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:48:46+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:22:20+00:00</t>
+    <t>2023-03-03T14:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:37:52+00:00</t>
+    <t>2023-03-03T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:38:52+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:35:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:35:13+00:00</t>
+    <t>2023-03-03T15:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:45:33+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:01:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:01:39+00:00</t>
+    <t>2023-03-04T08:04:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:04+00:00</t>
+    <t>2023-03-04T08:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:34+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T10:47:46+00:00</t>
+    <t>2023-03-05T11:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:22:11+00:00</t>
+    <t>2023-03-05T11:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:37:19+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T06:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T06:39:05+00:00</t>
+    <t>2023-03-06T07:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:13:58+00:00</t>
+    <t>2023-03-06T07:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:14:57+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T08:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T08:14:15+00:00</t>
+    <t>2023-03-06T09:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:54:24+00:00</t>
+    <t>2023-03-06T09:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T09:55:26+00:00</t>
+    <t>2023-03-06T10:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:50:25+00:00</t>
+    <t>2023-03-06T11:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:14:25+00:00</t>
+    <t>2023-03-06T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:09:07+00:00</t>
+    <t>2023-03-06T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:17:43+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:36:35+00:00</t>
+    <t>2023-03-06T13:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:46:45+00:00</t>
+    <t>2023-03-06T13:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:48:08+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-06T14:06:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:06:21+00:00</t>
+    <t>2023-03-07T10:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:12:47+00:00</t>
+    <t>2023-03-07T10:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:15:46+00:00</t>
+    <t>2023-03-07T11:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:05:08+00:00</t>
+    <t>2023-03-07T11:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:15:07+00:00</t>
+    <t>2023-03-07T11:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:33:22+00:00</t>
+    <t>2023-03-07T11:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:34:06+00:00</t>
+    <t>2023-03-07T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:11:05+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T14:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:32:58+00:00</t>
+    <t>2023-03-07T14:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:40:09+00:00</t>
+    <t>2023-03-07T14:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:56:30+00:00</t>
+    <t>2023-03-07T15:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:57+00:00</t>
+    <t>2023-03-07T15:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:46:47+00:00</t>
+    <t>2023-03-07T15:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:55:51+00:00</t>
+    <t>2023-03-07T16:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:02:22+00:00</t>
+    <t>2023-03-07T16:10:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:10:56+00:00</t>
+    <t>2023-03-07T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:20:26+00:00</t>
+    <t>2023-03-07T16:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:27:46+00:00</t>
+    <t>2023-03-07T16:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:36:29+00:00</t>
+    <t>2023-03-07T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:37:52+00:00</t>
+    <t>2023-03-07T16:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:59:55+00:00</t>
+    <t>2023-03-07T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:01:28+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:17:23+00:00</t>
+    <t>2023-03-08T14:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:35:35+00:00</t>
+    <t>2023-03-08T14:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:37:17+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:08:56+00:00</t>
+    <t>2023-03-08T15:33:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:34+00:00</t>
+    <t>2023-03-08T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:41:32+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T10:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:46:46+00:00</t>
+    <t>2023-03-09T10:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:56:27+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-03-13T09:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="183">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -362,6 +362,220 @@
   </si>
   <si>
     <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-art-regimen-change-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.system</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.version</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.code</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.display</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Extension.value[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Extension.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>ARV regimen change</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
 </sst>
 </file>
@@ -674,7 +888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -683,10 +897,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -697,7 +911,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -714,11 +928,11 @@
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1452,6 +1666,1165 @@
         <v>101</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:44:56+00:00</t>
+    <t>2023-04-04T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-art-regimen-switched-or-substituted.xlsx
+++ b/StructureDefinition-art-regimen-switched-or-substituted.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T10:54:05+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
